--- a/JupyterNB-Python_v3.11/ML_DATA/visualize_output/NeuralNetwork_demo.pkl/predictions_with_formatting.xlsx
+++ b/JupyterNB-Python_v3.11/ML_DATA/visualize_output/NeuralNetwork_demo.pkl/predictions_with_formatting.xlsx
@@ -681,10 +681,10 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Overweight_Level_II</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
+          <t>Obesity_Type_I</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>Overweight_Level_II</t>
         </is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Overweight_Level_I</t>
+          <t>Overweight_Level_II</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
@@ -2735,10 +2735,10 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Normal_Weight</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
+          <t>Overweight_Level_I</t>
+        </is>
+      </c>
+      <c r="S29" s="1" t="inlineStr">
         <is>
           <t>Overweight_Level_I</t>
         </is>
@@ -5895,10 +5895,10 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Obesity_Type_I</t>
-        </is>
-      </c>
-      <c r="S69" s="2" t="inlineStr">
+          <t>Obesity_Type_II</t>
+        </is>
+      </c>
+      <c r="S69" s="1" t="inlineStr">
         <is>
           <t>Obesity_Type_II</t>
         </is>
@@ -13321,10 +13321,10 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Overweight_Level_I</t>
-        </is>
-      </c>
-      <c r="S163" s="1" t="inlineStr">
+          <t>Normal_Weight</t>
+        </is>
+      </c>
+      <c r="S163" s="2" t="inlineStr">
         <is>
           <t>Overweight_Level_I</t>
         </is>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Obesity_Type_I</t>
+          <t>Overweight_Level_I</t>
         </is>
       </c>
       <c r="S165" s="2" t="inlineStr">
@@ -14111,10 +14111,10 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Obesity_Type_II</t>
-        </is>
-      </c>
-      <c r="S173" s="1" t="inlineStr">
+          <t>Obesity_Type_I</t>
+        </is>
+      </c>
+      <c r="S173" s="2" t="inlineStr">
         <is>
           <t>Obesity_Type_II</t>
         </is>
